--- a/data/hotels_by_city/Denver/Denver_shard_136.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_136.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33330-d10627691-Reviews-Holiday_Inn_Express_and_Suites_Broomfield-Broomfield_Colorado.html</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Boulder-Hotels-Holiday-Inn-Express-And-Suites-Broomfield.h15913929.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,168 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33330-d10627691-r601854353-Holiday_Inn_Express_and_Suites_Broomfield-Broomfield_Colorado.html</t>
+  </si>
+  <si>
+    <t>33330</t>
+  </si>
+  <si>
+    <t>10627691</t>
+  </si>
+  <si>
+    <t>601854353</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>Checking area for relocation possibility...</t>
+  </si>
+  <si>
+    <t>Service in this location is poor, in my opinion. Here's why our stay was not very pleasant.- Pillows are terrible..they were flat, not good quality. - Our room was not cleaned. We were out for approx. 8 hours to come back at 6pm with our room not done. We even spoke to the cleaning ladies when we left to ensure they service our room...they were directly across from our room and we let them know we were leaving and that they can go in! We even talked about to please provide us with couple of pillows and they said, no problem.  But after a long day and returning to our room so we can relax to find it undone was very disappointing.  - My husband went downstairs to speak to the front desk to ask about why our room wasn't clean.  The front desk, whose name was Hannah, response was "Oh, well, they are still here".  No apology or anything she definitely need more training in customer service...Sad.- The gym was ok, but make sure you bring your towel as they do not put any towels for your use. 3 times I went in there and no towels.  What is going for this Holiday Inn is the location. Very nice location, nice mall nearby, restaurants, very clean area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Service in this location is poor, in my opinion. Here's why our stay was not very pleasant.- Pillows are terrible..they were flat, not good quality. - Our room was not cleaned. We were out for approx. 8 hours to come back at 6pm with our room not done. We even spoke to the cleaning ladies when we left to ensure they service our room...they were directly across from our room and we let them know we were leaving and that they can go in! We even talked about to please provide us with couple of pillows and they said, no problem.  But after a long day and returning to our room so we can relax to find it undone was very disappointing.  - My husband went downstairs to speak to the front desk to ask about why our room wasn't clean.  The front desk, whose name was Hannah, response was "Oh, well, they are still here".  No apology or anything she definitely need more training in customer service...Sad.- The gym was ok, but make sure you bring your towel as they do not put any towels for your use. 3 times I went in there and no towels.  What is going for this Holiday Inn is the location. Very nice location, nice mall nearby, restaurants, very clean area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33330-d10627691-r565638780-Holiday_Inn_Express_and_Suites_Broomfield-Broomfield_Colorado.html</t>
+  </si>
+  <si>
+    <t>565638780</t>
+  </si>
+  <si>
+    <t>03/10/2018</t>
+  </si>
+  <si>
+    <t>Weekend Away</t>
+  </si>
+  <si>
+    <t>Loved it. The pool and Jacuzzi were a huge plus. Everyone was so friendly. The complimentary Breakfast was very good with a good selection. Very quiet and the view of the mountains was breath taking. The property was very clean the beds were new it was so comfortable!  Great Job! it was a very peaceful stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Courtney P, General Manager at Holiday Inn Express and Suites Broomfield, responded to this reviewResponded March 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2018</t>
+  </si>
+  <si>
+    <t>Loved it. The pool and Jacuzzi were a huge plus. Everyone was so friendly. The complimentary Breakfast was very good with a good selection. Very quiet and the view of the mountains was breath taking. The property was very clean the beds were new it was so comfortable!  Great Job! it was a very peaceful stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33330-d10627691-r564945941-Holiday_Inn_Express_and_Suites_Broomfield-Broomfield_Colorado.html</t>
+  </si>
+  <si>
+    <t>564945941</t>
+  </si>
+  <si>
+    <t>03/06/2018</t>
+  </si>
+  <si>
+    <t>Definitely not luxurious, but just fine for overnights and travel</t>
+  </si>
+  <si>
+    <t>This is pretty much your run-of-the-mill Holiday Inn Express.  The property looked almost brand new.  I chose this one primarily for the location - close to Boulder and the area hiking, but far enough away that the costs were much more reasonable.  The furniture and decor in the room felt pretty cheap, but the bed was comfortable and the bathroom clean, which are really all I care about in an overnight room.  The breakfast was what you would expect from a hotel continental offering - cereals, small muffins, yogurts, some fruit, and a pancake maker.  The staff was all very friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>This is pretty much your run-of-the-mill Holiday Inn Express.  The property looked almost brand new.  I chose this one primarily for the location - close to Boulder and the area hiking, but far enough away that the costs were much more reasonable.  The furniture and decor in the room felt pretty cheap, but the bed was comfortable and the bathroom clean, which are really all I care about in an overnight room.  The breakfast was what you would expect from a hotel continental offering - cereals, small muffins, yogurts, some fruit, and a pancake maker.  The staff was all very friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33330-d10627691-r524756032-Holiday_Inn_Express_and_Suites_Broomfield-Broomfield_Colorado.html</t>
+  </si>
+  <si>
+    <t>524756032</t>
+  </si>
+  <si>
+    <t>09/15/2017</t>
+  </si>
+  <si>
+    <t>STAY AWAY</t>
+  </si>
+  <si>
+    <t>I stayed at this HIE in mid-August to move my daughter to CU Boulder.  I had paid for the reservation before arriving.  The desk asked for my credit card for incidentals.  I did not realize until a few days later that they charged my card a second time for the room.  I called HIE and Orbitz.  They talked to each other and I was told the hotel would credit me.  A week later, no credit.  I called HIE again and speak to a manager.  I was told it had already been credited to my card.  No credit!  She "personally" was going to take care of it.  I call again 10 days later and speak to the new "acting GM".  She's going to call back in 2 hours.  What a liar.  I heard nothing back.  I call back the next day and now they don't even bother to talk to me. They just send my call straight to the "GM's" voice mail.  Odd thing, this one is a man.  Who knows who is in charge!  STAY AWAY!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Courtney P, General Manager at Holiday Inn Express and Suites Broomfield, responded to this reviewResponded November 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this HIE in mid-August to move my daughter to CU Boulder.  I had paid for the reservation before arriving.  The desk asked for my credit card for incidentals.  I did not realize until a few days later that they charged my card a second time for the room.  I called HIE and Orbitz.  They talked to each other and I was told the hotel would credit me.  A week later, no credit.  I called HIE again and speak to a manager.  I was told it had already been credited to my card.  No credit!  She "personally" was going to take care of it.  I call again 10 days later and speak to the new "acting GM".  She's going to call back in 2 hours.  What a liar.  I heard nothing back.  I call back the next day and now they don't even bother to talk to me. They just send my call straight to the "GM's" voice mail.  Odd thing, this one is a man.  Who knows who is in charge!  STAY AWAY!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33330-d10627691-r524128518-Holiday_Inn_Express_and_Suites_Broomfield-Broomfield_Colorado.html</t>
+  </si>
+  <si>
+    <t>524128518</t>
+  </si>
+  <si>
+    <t>09/13/2017</t>
+  </si>
+  <si>
+    <t>New property working out some kinks</t>
+  </si>
+  <si>
+    <t>Pretty common deliverable with HI Express Suites anywhere you go. This property is new and is still working out some kinks. Breakfast seemed a bit cold and sparse. Front desk was very helpful despite computer issues. Beds and furnishings quite nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Keely W, General Manager at Holiday Inn Express and Suites Broomfield, responded to this reviewResponded September 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2017</t>
+  </si>
+  <si>
+    <t>Pretty common deliverable with HI Express Suites anywhere you go. This property is new and is still working out some kinks. Breakfast seemed a bit cold and sparse. Front desk was very helpful despite computer issues. Beds and furnishings quite nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33330-d10627691-r520663913-Holiday_Inn_Express_and_Suites_Broomfield-Broomfield_Colorado.html</t>
+  </si>
+  <si>
+    <t>520663913</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t>Incompetent. Noisy. Cheap spirited.</t>
+  </si>
+  <si>
+    <t>I stayed for 2 nights. Pleasant rooms and hotel spaces but:Its new &amp; understaffed - check in was delayed by an hour or more. Comments:- door closers too strong so lots of slamming noise- lift makes a train noise on arrival which disturbs guests in rooms - on the west side there is noise from nearby highway.- tbe breakfast is the standard offering of non - nutitrious rubbish eaten off polystyrene. This is cheapness.My room requirements were not met simply because they didn't notice them not because of unavailability. Next night I was moved but that room also did not meet stated requirements! Extraordinary. In all for this price I expect much better and did not appreciate the cheap food , general incompetance and disturbed rest.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed for 2 nights. Pleasant rooms and hotel spaces but:Its new &amp; understaffed - check in was delayed by an hour or more. Comments:- door closers too strong so lots of slamming noise- lift makes a train noise on arrival which disturbs guests in rooms - on the west side there is noise from nearby highway.- tbe breakfast is the standard offering of non - nutitrious rubbish eaten off polystyrene. This is cheapness.My room requirements were not met simply because they didn't notice them not because of unavailability. Next night I was moved but that room also did not meet stated requirements! Extraordinary. In all for this price I expect much better and did not appreciate the cheap food , general incompetance and disturbed rest.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +700,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +732,461 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65517</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65517</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65517</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65517</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65517</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65517</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>88</v>
+      </c>
+      <c r="X7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_136.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_136.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
   <si>
     <t>STR#</t>
   </si>
@@ -147,18 +147,159 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33330-d10627691-r609725792-Holiday_Inn_Express_and_Suites_Broomfield-Broomfield_Colorado.html</t>
+  </si>
+  <si>
+    <t>33330</t>
+  </si>
+  <si>
+    <t>10627691</t>
+  </si>
+  <si>
+    <t>609725792</t>
+  </si>
+  <si>
+    <t>08/23/2018</t>
+  </si>
+  <si>
+    <t>Standard but not efficient</t>
+  </si>
+  <si>
+    <t>The hotel is pretty good if only consider its hardware part. But the software part is lacking. We checked in around 11 pm and the room is not ready yet, we waited for about 20 min for the room to be ready. This is really not what we expected, we understand there may be some delay if we checked in around 3pm and the room is not ready but 11 pm?! this is not acceptable.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33330-d10627691-r572455926-Holiday_Inn_Express_and_Suites_Broomfield-Broomfield_Colorado.html</t>
+  </si>
+  <si>
+    <t>572455926</t>
+  </si>
+  <si>
+    <t>04/10/2018</t>
+  </si>
+  <si>
+    <t>Great location for Denver and Boulder with a view!</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed here two nights in March.  This hotel is located within driving distance of a nice mall, next exit up (Flatiron Mall) and next exits each direction are several eating places.  We went up to Estes Park one day and came back exploring Boulder.  The hotel is relatively very new, spacious and friendly!  We had a view out our western facing room (catch the pink sunrises off the mountains!).  We ended up adding the second night very easily.  Everyone we dealt with was extremely friendly and helpful.  As previous reviews stated, this is a Holiday Inn Express...Breakfast is the usual (love it), clean rooms, comfy beds, good locations, no secret charges, plenty of parking, etc...you get the idea.  Would DEFINITELY recommend this hotel and would stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Courtney P, General Manager at Holiday Inn Express and Suites Broomfield, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed here two nights in March.  This hotel is located within driving distance of a nice mall, next exit up (Flatiron Mall) and next exits each direction are several eating places.  We went up to Estes Park one day and came back exploring Boulder.  The hotel is relatively very new, spacious and friendly!  We had a view out our western facing room (catch the pink sunrises off the mountains!).  We ended up adding the second night very easily.  Everyone we dealt with was extremely friendly and helpful.  As previous reviews stated, this is a Holiday Inn Express...Breakfast is the usual (love it), clean rooms, comfy beds, good locations, no secret charges, plenty of parking, etc...you get the idea.  Would DEFINITELY recommend this hotel and would stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33330-d10627691-r608991799-Holiday_Inn_Express_and_Suites_Broomfield-Broomfield_Colorado.html</t>
+  </si>
+  <si>
+    <t>608991799</t>
+  </si>
+  <si>
+    <t>08/21/2018</t>
+  </si>
+  <si>
+    <t>Nice, New Hotel</t>
+  </si>
+  <si>
+    <t>This hotel was a great location, just a short drive from Boulder and Denver.  It seems as if everything was brand new.  Our room was very clean, and we had excellent service while we were there. Free breakfast is always a great perk!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33330-d10627691-r606543768-Holiday_Inn_Express_and_Suites_Broomfield-Broomfield_Colorado.html</t>
+  </si>
+  <si>
+    <t>606543768</t>
+  </si>
+  <si>
+    <t>08/14/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barely adequate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even for a HIE this hotel is barely adequate. Clean enough, on the plus side. But uncomfortable mattresses. Free breakfast ran out of most items. Ran out of tp and tissues in the room. Bare bones but still a little pricey. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33330-d10627691-r606339611-Holiday_Inn_Express_and_Suites_Broomfield-Broomfield_Colorado.html</t>
+  </si>
+  <si>
+    <t>606339611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A very good hotel in a great location </t>
+  </si>
+  <si>
+    <t>Had a quick one day stay at this hotel.  They were able to check me in before noon!  The staff was exceptionally friendly and professional.   The room was new and spotless.   So why only 4 stars?  One elevator was out of service so the other one was very busy and delays were evident.  The housecleaning staff was also forced to use the one remaining elevator for their large carts at the same time customers were trying to access it.  I am sure this was a very short term issue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33330-d10627691-r602681622-Holiday_Inn_Express_and_Suites_Broomfield-Broomfield_Colorado.html</t>
+  </si>
+  <si>
+    <t>602681622</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>Amazing Manager, Courtney</t>
+  </si>
+  <si>
+    <t>Three-night stay. Good breakfast selection. Very conscientious manager, Courtney, who is focused on keeping the property immaculate and accommodating guests, always with a big smile!  She sets an excellent example for the staff.Nice, spacious, clean room. Comfortable bed. Large, bright, immaculate breakfast area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Courtney P, General Manager at Holiday Inn Express and Suites Broomfield, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Three-night stay. Good breakfast selection. Very conscientious manager, Courtney, who is focused on keeping the property immaculate and accommodating guests, always with a big smile!  She sets an excellent example for the staff.Nice, spacious, clean room. Comfortable bed. Large, bright, immaculate breakfast area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33330-d10627691-r602142927-Holiday_Inn_Express_and_Suites_Broomfield-Broomfield_Colorado.html</t>
+  </si>
+  <si>
+    <t>602142927</t>
+  </si>
+  <si>
     <t>08/02/2018</t>
   </si>
   <si>
+    <t>Great once we got into the room</t>
+  </si>
+  <si>
+    <t>I have mixed feelings on this hotel. Earlier this week, we stayed for two nights and everything was great. Went onto Estes Park and we’re supposed to be there three nights, but we realized we’d rather spend another night in Boulder rather than a third night in Estes, so we booked this hotel again and came back yesterday. We requested early check-in so we could drop off our stuff before exploring and eating dinner, but they couldn’t accommodate that which was fine. Got there right at 3 (when check-in starts). They were busy, but told me they upgraded us to a suite with a mountain view. We were pumped! Then we couldn’t get into that room; they said it must be a lock issue on the door. So they gave us a different room... went to that floor (with our cart full of stuff) and that room hadn’t been cleaned. Went back down and they said it’d be about half an hour until the room was clean. We finally got into a great room with a great view at around 4pm after waiting an hour in the lobby. Everyone was really nice, but it was definitely a frustrating situation. Still recommend this hotel, though. (Photo of the view from third floor mountain view side.) MoreShow less</t>
+  </si>
+  <si>
+    <t>I have mixed feelings on this hotel. Earlier this week, we stayed for two nights and everything was great. Went onto Estes Park and we’re supposed to be there three nights, but we realized we’d rather spend another night in Boulder rather than a third night in Estes, so we booked this hotel again and came back yesterday. We requested early check-in so we could drop off our stuff before exploring and eating dinner, but they couldn’t accommodate that which was fine. Got there right at 3 (when check-in starts). They were busy, but told me they upgraded us to a suite with a mountain view. We were pumped! Then we couldn’t get into that room; they said it must be a lock issue on the door. So they gave us a different room... went to that floor (with our cart full of stuff) and that room hadn’t been cleaned. Went back down and they said it’d be about half an hour until the room was clean. We finally got into a great room with a great view at around 4pm after waiting an hour in the lobby. Everyone was really nice, but it was definitely a frustrating situation. Still recommend this hotel, though. (Photo of the view from third floor mountain view side.) More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33330-d10627691-r601854353-Holiday_Inn_Express_and_Suites_Broomfield-Broomfield_Colorado.html</t>
   </si>
   <si>
-    <t>33330</t>
-  </si>
-  <si>
-    <t>10627691</t>
-  </si>
-  <si>
     <t>601854353</t>
   </si>
   <si>
@@ -174,9 +315,6 @@
     <t>July 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Service in this location is poor, in my opinion. Here's why our stay was not very pleasant.- Pillows are terrible..they were flat, not good quality. - Our room was not cleaned. We were out for approx. 8 hours to come back at 6pm with our room not done. We even spoke to the cleaning ladies when we left to ensure they service our room...they were directly across from our room and we let them know we were leaving and that they can go in! We even talked about to please provide us with couple of pillows and they said, no problem.  But after a long day and returning to our room so we can relax to find it undone was very disappointing.  - My husband went downstairs to speak to the front desk to ask about why our room wasn't clean.  The front desk, whose name was Hannah, response was "Oh, well, they are still here".  No apology or anything she definitely need more training in customer service...Sad.- The gym was ok, but make sure you bring your towel as they do not put any towels for your use. 3 times I went in there and no towels.  What is going for this Holiday Inn is the location. Very nice location, nice mall nearby, restaurants, very clean area.More</t>
   </si>
   <si>
@@ -195,12 +333,6 @@
     <t>Loved it. The pool and Jacuzzi were a huge plus. Everyone was so friendly. The complimentary Breakfast was very good with a good selection. Very quiet and the view of the mountains was breath taking. The property was very clean the beds were new it was so comfortable!  Great Job! it was a very peaceful stay.MoreShow less</t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Courtney P, General Manager at Holiday Inn Express and Suites Broomfield, responded to this reviewResponded March 11, 2018</t>
   </si>
   <si>
@@ -228,12 +360,63 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>This is pretty much your run-of-the-mill Holiday Inn Express.  The property looked almost brand new.  I chose this one primarily for the location - close to Boulder and the area hiking, but far enough away that the costs were much more reasonable.  The furniture and decor in the room felt pretty cheap, but the bed was comfortable and the bathroom clean, which are really all I care about in an overnight room.  The breakfast was what you would expect from a hotel continental offering - cereals, small muffins, yogurts, some fruit, and a pancake maker.  The staff was all very friendly and helpful.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33330-d10627691-r560636156-Holiday_Inn_Express_and_Suites_Broomfield-Broomfield_Colorado.html</t>
+  </si>
+  <si>
+    <t>560636156</t>
+  </si>
+  <si>
+    <t>02/15/2018</t>
+  </si>
+  <si>
+    <t>Family visit</t>
+  </si>
+  <si>
+    <t>We booked this hotel because it was close to family we were visiting. The hotel was still under construction but we one this when we booked and took our chances and was not a big deal. Some things didn't work but no big deal. Breakfast was hot, adequate, and enough choices to make all of us happy. Staff was great on assisting with the many glitches with our room key, yet again minor issue. Outside of construction or was clean. House keeping as expected. Why only 4 stars? The pool. Nothing on the Website stating the pool was still under constructing. Very disappointing as we were looking forward to this during some down time. A quick note on the hotel website stating this would have been nice. Price was reasonable to the area. Location is a bit industrial but very close to Flat Irons mall. Wal-Mart. Food.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Courtney P, General Manager at Holiday Inn Express and Suites Broomfield, responded to this reviewResponded February 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2018</t>
+  </si>
+  <si>
+    <t>We booked this hotel because it was close to family we were visiting. The hotel was still under construction but we one this when we booked and took our chances and was not a big deal. Some things didn't work but no big deal. Breakfast was hot, adequate, and enough choices to make all of us happy. Staff was great on assisting with the many glitches with our room key, yet again minor issue. Outside of construction or was clean. House keeping as expected. Why only 4 stars? The pool. Nothing on the Website stating the pool was still under constructing. Very disappointing as we were looking forward to this during some down time. A quick note on the hotel website stating this would have been nice. Price was reasonable to the area. Location is a bit industrial but very close to Flat Irons mall. Wal-Mart. Food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33330-d10627691-r549474850-Holiday_Inn_Express_and_Suites_Broomfield-Broomfield_Colorado.html</t>
+  </si>
+  <si>
+    <t>549474850</t>
+  </si>
+  <si>
+    <t>12/27/2017</t>
+  </si>
+  <si>
+    <t>A Good Night's Sleep</t>
+  </si>
+  <si>
+    <t>This hotel is close to shopping at the Flatiron Mall, and reasonably close to Boulder for excursions to fine dining or a CU football game (Go Huskies!)  The hotel is relatively new, so rooms are modern and clean.  The front desk check in was fast, and pleasant.  the Front desk lady was a corker; she had relocated from the South, and had funny stories of the change in climate.  The breakfast is the standard fare, but when my wife needed something, out of the blue one of the maintenance staff rushed to her rescue.  On of the more pleasant aspects was the lack of road noise.  Even though the facility is a hop skip and jump away from very busy Highway 36, my sleep was undisturbed.  The town of Broomfield is a bit difficult to navigate, however, the charming old town of Louisville is very close and it is easy to get about.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Courtney P, General Manager at Holiday Inn Express and Suites Broomfield, responded to this reviewResponded December 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is close to shopping at the Flatiron Mall, and reasonably close to Boulder for excursions to fine dining or a CU football game (Go Huskies!)  The hotel is relatively new, so rooms are modern and clean.  The front desk check in was fast, and pleasant.  the Front desk lady was a corker; she had relocated from the South, and had funny stories of the change in climate.  The breakfast is the standard fare, but when my wife needed something, out of the blue one of the maintenance staff rushed to her rescue.  On of the more pleasant aspects was the lack of road noise.  Even though the facility is a hop skip and jump away from very busy Highway 36, my sleep was undisturbed.  The town of Broomfield is a bit difficult to navigate, however, the charming old town of Louisville is very close and it is easy to get about.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33330-d10627691-r524756032-Holiday_Inn_Express_and_Suites_Broomfield-Broomfield_Colorado.html</t>
   </si>
   <si>
@@ -276,9 +459,6 @@
     <t>Pretty common deliverable with HI Express Suites anywhere you go. This property is new and is still working out some kinks. Breakfast seemed a bit cold and sparse. Front desk was very helpful despite computer issues. Beds and furnishings quite nice.MoreShow less</t>
   </si>
   <si>
-    <t>September 2017</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
@@ -307,6 +487,36 @@
   </si>
   <si>
     <t>I stayed for 2 nights. Pleasant rooms and hotel spaces but:Its new &amp; understaffed - check in was delayed by an hour or more. Comments:- door closers too strong so lots of slamming noise- lift makes a train noise on arrival which disturbs guests in rooms - on the west side there is noise from nearby highway.- tbe breakfast is the standard offering of non - nutitrious rubbish eaten off polystyrene. This is cheapness.My room requirements were not met simply because they didn't notice them not because of unavailability. Next night I was moved but that room also did not meet stated requirements! Extraordinary. In all for this price I expect much better and did not appreciate the cheap food , general incompetance and disturbed rest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33330-d10627691-r515733369-Holiday_Inn_Express_and_Suites_Broomfield-Broomfield_Colorado.html</t>
+  </si>
+  <si>
+    <t>515733369</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t>Horrible housekeeping</t>
+  </si>
+  <si>
+    <t>I stayed 6 nights at this place. At first look, everything seemed clean and new, and the front desk staff was friendly. HOWEVER,
+I found out later the indoor pool was closed and the construction/attention to detail within the building was shoddy. I came here expecting to use the pool to relax during my stay but only find out when I check-in. WTF?
+I have been to many hotels over the years and by far this hotel has the worst housekeeping staff I have ever experienced. 
+Day 2, I return to my room and the dirty towels were not replaced, trash was not collected, no restocking of lotion and sink was still dirty.  I left a note for the housekeeper to take trash, refill lotion, and add towels.
+Day 3 all was good. However, while I was out in the parking lot cleaning out my car going in and out and coming up to my room with items, I noticed the same group of people smoking every hour, 4x in 4 HOURS!  I mentioned this to the manager...
+Day 4 only towels replaced and beds made, the sink was dirty, no refill on toilet paper--had less than half a roll left. 
+Day 5, no toilet paper AT ALL, the empty roll still sitting on the floor, trash overflowing in the trash can and onto the floor. I complained to the front desk and was told she would let the Asst...I stayed 6 nights at this place. At first look, everything seemed clean and new, and the front desk staff was friendly. HOWEVER,I found out later the indoor pool was closed and the construction/attention to detail within the building was shoddy. I came here expecting to use the pool to relax during my stay but only find out when I check-in. WTF?I have been to many hotels over the years and by far this hotel has the worst housekeeping staff I have ever experienced. Day 2, I return to my room and the dirty towels were not replaced, trash was not collected, no restocking of lotion and sink was still dirty.  I left a note for the housekeeper to take trash, refill lotion, and add towels.Day 3 all was good. However, while I was out in the parking lot cleaning out my car going in and out and coming up to my room with items, I noticed the same group of people smoking every hour, 4x in 4 HOURS!  I mentioned this to the manager...Day 4 only towels replaced and beds made, the sink was dirty, no refill on toilet paper--had less than half a roll left. Day 5, no toilet paper AT ALL, the empty roll still sitting on the floor, trash overflowing in the trash can and onto the floor. I complained to the front desk and was told she would let the Asst manager know. I have not heard from the Asst manager.Day 6, (Sunday) I was woken up by housekeeping at 0830 asking if they can clean the room. (They have never come to my room this early previously). I placed the "do not disturb" sign on the door for the next 2.5 hours. Before I left, I pulled the sign off the door at 1100. I return to my room that evening and NOTHING was done. I call the front desk again to complain and she actually tells me because they saw the DND sign on the door, they were not 'obligated' to come back to clean.  Seriously??!  When I responded that I took the sign off before I left and they had all afternoon to clean it, she backtracked and asked if I wanted to speak with Jennifer  the GM who would be in the next morning at 9am.  I'm checking out at 9 to catch my flight.  Sorry Holiday Inn Express, you had your chance.  Never again!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed 6 nights at this place. At first look, everything seemed clean and new, and the front desk staff was friendly. HOWEVER,
+I found out later the indoor pool was closed and the construction/attention to detail within the building was shoddy. I came here expecting to use the pool to relax during my stay but only find out when I check-in. WTF?
+I have been to many hotels over the years and by far this hotel has the worst housekeeping staff I have ever experienced. 
+Day 2, I return to my room and the dirty towels were not replaced, trash was not collected, no restocking of lotion and sink was still dirty.  I left a note for the housekeeper to take trash, refill lotion, and add towels.
+Day 3 all was good. However, while I was out in the parking lot cleaning out my car going in and out and coming up to my room with items, I noticed the same group of people smoking every hour, 4x in 4 HOURS!  I mentioned this to the manager...
+Day 4 only towels replaced and beds made, the sink was dirty, no refill on toilet paper--had less than half a roll left. 
+Day 5, no toilet paper AT ALL, the empty roll still sitting on the floor, trash overflowing in the trash can and onto the floor. I complained to the front desk and was told she would let the Asst...I stayed 6 nights at this place. At first look, everything seemed clean and new, and the front desk staff was friendly. HOWEVER,I found out later the indoor pool was closed and the construction/attention to detail within the building was shoddy. I came here expecting to use the pool to relax during my stay but only find out when I check-in. WTF?I have been to many hotels over the years and by far this hotel has the worst housekeeping staff I have ever experienced. Day 2, I return to my room and the dirty towels were not replaced, trash was not collected, no restocking of lotion and sink was still dirty.  I left a note for the housekeeper to take trash, refill lotion, and add towels.Day 3 all was good. However, while I was out in the parking lot cleaning out my car going in and out and coming up to my room with items, I noticed the same group of people smoking every hour, 4x in 4 HOURS!  I mentioned this to the manager...Day 4 only towels replaced and beds made, the sink was dirty, no refill on toilet paper--had less than half a roll left. Day 5, no toilet paper AT ALL, the empty roll still sitting on the floor, trash overflowing in the trash can and onto the floor. I complained to the front desk and was told she would let the Asst manager know. I have not heard from the Asst manager.Day 6, (Sunday) I was woken up by housekeeping at 0830 asking if they can clean the room. (They have never come to my room this early previously). I placed the "do not disturb" sign on the door for the next 2.5 hours. Before I left, I pulled the sign off the door at 1100. I return to my room that evening and NOTHING was done. I call the front desk again to complain and she actually tells me because they saw the DND sign on the door, they were not 'obligated' to come back to clean.  Seriously??!  When I responded that I took the sign off before I left and they had all afternoon to clean it, she backtracked and asked if I wanted to speak with Jennifer  the GM who would be in the next morning at 9am.  I'm checking out at 9 to catch my flight.  Sorry Holiday Inn Express, you had your chance.  Never again!More</t>
   </si>
 </sst>
 </file>
@@ -841,7 +1051,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -851,9 +1061,11 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
@@ -865,7 +1077,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -881,7 +1093,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -890,28 +1102,30 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="O3" t="s">
-        <v>60</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
       <c r="R3" t="n">
         <v>5</v>
       </c>
@@ -924,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
         <v>61</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>62</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -946,7 +1160,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -955,34 +1169,32 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>66</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>67</v>
       </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="n">
+      <c r="Q4" t="n">
         <v>5</v>
       </c>
-      <c r="S4" t="n">
-        <v>4</v>
-      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
         <v>5</v>
@@ -990,14 +1202,10 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>61</v>
-      </c>
-      <c r="X4" t="s">
-        <v>62</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1013,7 +1221,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1022,49 +1230,39 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" t="s">
         <v>73</v>
-      </c>
-      <c r="J5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" t="s">
-        <v>60</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3</v>
-      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>78</v>
-      </c>
-      <c r="X5" t="s">
-        <v>79</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1080,7 +1278,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1089,25 +1287,25 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1118,14 +1316,10 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>88</v>
-      </c>
-      <c r="X6" t="s">
-        <v>89</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -1141,7 +1335,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1150,43 +1344,687 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65517</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
         <v>88</v>
       </c>
-      <c r="X7" t="s">
+      <c r="J8" t="s">
         <v>89</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>60</v>
+      </c>
+      <c r="X8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65517</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
         <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>60</v>
+      </c>
+      <c r="X9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65517</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>105</v>
+      </c>
+      <c r="X10" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65517</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>105</v>
+      </c>
+      <c r="X11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65517</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>121</v>
+      </c>
+      <c r="X12" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65517</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>130</v>
+      </c>
+      <c r="X13" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65517</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>139</v>
+      </c>
+      <c r="X14" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65517</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>120</v>
+      </c>
+      <c r="O15" t="s">
+        <v>147</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>148</v>
+      </c>
+      <c r="X15" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65517</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>148</v>
+      </c>
+      <c r="X16" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65517</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" t="s">
+        <v>161</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>138</v>
+      </c>
+      <c r="O17" t="s">
+        <v>147</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>139</v>
+      </c>
+      <c r="X17" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
